--- a/result/gr100_09_simulated/details.xlsx
+++ b/result/gr100_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8100399971008301</v>
+        <v>0.7408638000488281</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2383.035695089691</v>
+        <v>5332.369331643707</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1282965775893552</v>
+        <v>0.1224743717815145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.115278197804068</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1075576731322644</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09386753202711062</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08331175967831776</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07419744154723329</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06830147061646759</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06392385604576005</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05843473905303991</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05539713161865312</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05267296465650888</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05158028700979769</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04986464079257396</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04986464079257396</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04863858712774115</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0480005526749552</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04740144567889219</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04695275085057268</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04676457755644092</v>
+        <v>0.1119448212796044</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04645293752611483</v>
+        <v>0.1119448212796044</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8180019855499268</v>
+        <v>0.8230006694793701</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2206.381386953263</v>
+        <v>2283.877863671712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1497593480639168</v>
+        <v>0.1320051911585163</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1197586101214541</v>
+        <v>0.125711923168711</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09688714715355891</v>
+        <v>0.1007998690413547</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08209512523246118</v>
+        <v>0.08365886483087463</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07448999946462836</v>
+        <v>0.0749109377536249</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06386525333883021</v>
+        <v>0.06883631511461699</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06138167587828722</v>
+        <v>0.06270459288546704</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05793869197447677</v>
+        <v>0.05935795837570595</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05443592897560363</v>
+        <v>0.05606197634175334</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05096780532700341</v>
+        <v>0.05108948225248054</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04866555662713223</v>
+        <v>0.05062690877992004</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04771176136600785</v>
+        <v>0.049519271491518</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04616485169026725</v>
+        <v>0.04790161215254951</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04551538200682232</v>
+        <v>0.04703083164544249</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04430731892450019</v>
+        <v>0.04592965306132922</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04413721821542197</v>
+        <v>0.04547553417312739</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04347366053401649</v>
+        <v>0.04524014485222019</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04323195177491537</v>
+        <v>0.04493049377152694</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04311273892385342</v>
+        <v>0.04460052186854468</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04300938376127218</v>
+        <v>0.04452003632888327</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7160725593566895</v>
+        <v>0.734485387802124</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2394.501757771213</v>
+        <v>2360.759664688449</v>
       </c>
       <c r="F4" t="n">
         <v>0.1497593480639168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1266663807555334</v>
+        <v>0.1228077057349246</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1055414899002647</v>
+        <v>0.1028632017443405</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09022911819292757</v>
+        <v>0.09046948163690653</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08013991850526728</v>
+        <v>0.07903592409496828</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06869355910726008</v>
+        <v>0.06760585506952446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06266684660727424</v>
+        <v>0.06399615381852641</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05952914429212141</v>
+        <v>0.06103205789511927</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05706698182104653</v>
+        <v>0.05734910240102561</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0545962454825895</v>
+        <v>0.05554845181227069</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05322364573780942</v>
+        <v>0.05317126230851055</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05196769977171013</v>
+        <v>0.05165127808603515</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05058452287342315</v>
+        <v>0.05059626683613808</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0498322293299136</v>
+        <v>0.0494474970517505</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04880975618466604</v>
+        <v>0.04850820813741588</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04805491483052905</v>
+        <v>0.04736591095766077</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04768705498257989</v>
+        <v>0.04720031978818517</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04724435088253652</v>
+        <v>0.04662258797467365</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04674808171436683</v>
+        <v>0.04621840177599682</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04667644751990668</v>
+        <v>0.04601870691400484</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7070493698120117</v>
+        <v>0.7344110012054443</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2546.116976630219</v>
+        <v>2202.126286495735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1302562145010996</v>
+        <v>0.1497593480639168</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1246888457664479</v>
+        <v>0.1150776169237128</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1246888457664479</v>
+        <v>0.09420252304396427</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09680919138387997</v>
+        <v>0.08106652238228676</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08588967142171976</v>
+        <v>0.07032213466715975</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07653800960263579</v>
+        <v>0.06336161133801914</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06854440458145027</v>
+        <v>0.0587535044603494</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06686243795850984</v>
+        <v>0.05270396421690392</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06380068577811096</v>
+        <v>0.05127780498285568</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05912551607333385</v>
+        <v>0.05024495653787084</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05703841304951815</v>
+        <v>0.04865183969592821</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05558077631789825</v>
+        <v>0.04715726074969269</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05459043959270039</v>
+        <v>0.04587877057471723</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05172629595949663</v>
+        <v>0.04544753643029661</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05172629595949663</v>
+        <v>0.04445845528026365</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05107384861708351</v>
+        <v>0.04425215192444547</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05070720213108487</v>
+        <v>0.04342089270836839</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04988417001117769</v>
+        <v>0.04333439651787391</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04985511502634275</v>
+        <v>0.0430182666002697</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04963190987583272</v>
+        <v>0.04292643833325019</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7759826183319092</v>
+        <v>0.7343628406524658</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2490.283780292228</v>
+        <v>2238.452593445997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1237529450000646</v>
+        <v>0.1497593480639168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1237529450000646</v>
+        <v>0.1273342249029688</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1198785887880939</v>
+        <v>0.09834562226649746</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1041763465986606</v>
+        <v>0.08278138951877775</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09084849906446722</v>
+        <v>0.07417545257611062</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0788219901251012</v>
+        <v>0.06611260427658407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07155648021568037</v>
+        <v>0.06176315784337776</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06807098088557061</v>
+        <v>0.0573189936903312</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06258847224598929</v>
+        <v>0.05381713138375946</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05842774656957886</v>
+        <v>0.05022147756630944</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05592674339453618</v>
+        <v>0.04935866520371448</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05442627517087542</v>
+        <v>0.04750184179756599</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05200449190031448</v>
+        <v>0.04723804836265769</v>
       </c>
       <c r="S6" t="n">
-        <v>0.051911009746358</v>
+        <v>0.0459666389517788</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0507020324089506</v>
+        <v>0.0451779414181981</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05005488334549166</v>
+        <v>0.04476021280251491</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04906770067550866</v>
+        <v>0.04421328817394798</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04887402093232882</v>
+        <v>0.04391281415093422</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04867754936985004</v>
+        <v>0.04376813959888919</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04854354347548201</v>
+        <v>0.04363455347847947</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7741775512695312</v>
+        <v>0.7187647819519043</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2444.168919744498</v>
+        <v>2322.55232054115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1291704968013702</v>
+        <v>0.1497593480639168</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1291704968013702</v>
+        <v>0.121051373265077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1179721792748031</v>
+        <v>0.1015462242439347</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09672619726123033</v>
+        <v>0.08785649886713838</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08271413974823821</v>
+        <v>0.07653748951497456</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07393091180897286</v>
+        <v>0.07108744693888748</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06959603653361654</v>
+        <v>0.06532285974153362</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06484099160629239</v>
+        <v>0.0623509121110928</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06033369952411802</v>
+        <v>0.05563673721776942</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05761391887969664</v>
+        <v>0.05378637043887775</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05538251041234675</v>
+        <v>0.0507922605342291</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05210745922503052</v>
+        <v>0.0504351380058428</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05133432982229503</v>
+        <v>0.04888747650651677</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05068238771323891</v>
+        <v>0.04777419082765217</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05033533025933756</v>
+        <v>0.04691947740563192</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04927503668089347</v>
+        <v>0.04647352385885735</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04865783346067012</v>
+        <v>0.04598677325518256</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04815734948498105</v>
+        <v>0.0457135603675387</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04787221497807499</v>
+        <v>0.04542238432670259</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0476446183186062</v>
+        <v>0.04527392437702046</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8767404556274414</v>
+        <v>0.70308518409729</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5696.559977439088</v>
+        <v>2401.849469895791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.1290701352274599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.1270133153463208</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.1117232063016584</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.09665971620824125</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.08206766966181848</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.07189040343058704</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.06865720027486887</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.06333910381666959</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.05855306231114522</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.05664882094386005</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.05384359910907926</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.05284422807656074</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.050990567363592</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.04995369644771817</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.04823994171586801</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.04797003321811097</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.04767266914647879</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.0472731101195637</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.04689723502356903</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1190440541411128</v>
+        <v>0.04681967777574641</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7920265197753906</v>
+        <v>0.7187929153442383</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2734.082764124947</v>
+        <v>2283.044177400936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1261193912418087</v>
+        <v>0.1237898626793374</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1261193912418087</v>
+        <v>0.1237898626793374</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1261193912418087</v>
+        <v>0.1137535194410762</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1248536090813864</v>
+        <v>0.09044289117800083</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1168297781191224</v>
+        <v>0.07958117766702215</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09783529678757187</v>
+        <v>0.06630613126913937</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08782825690682147</v>
+        <v>0.0611658136712826</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0794917145725564</v>
+        <v>0.05890219355154275</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0717343316974666</v>
+        <v>0.05540752689693233</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06719338161273188</v>
+        <v>0.05230648169865215</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06418510907974763</v>
+        <v>0.05065512412086562</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0611187058917123</v>
+        <v>0.04960146059780877</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05895596961393713</v>
+        <v>0.04778493808594001</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05735019653956971</v>
+        <v>0.04648785251838729</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05604656975895844</v>
+        <v>0.04646220983655502</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05483648887144167</v>
+        <v>0.04548149340623794</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05425562623063176</v>
+        <v>0.04517396984899325</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05387496824621426</v>
+        <v>0.04469789586475171</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05351087490413574</v>
+        <v>0.04457158786177876</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05329596031432645</v>
+        <v>0.04450378513452116</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7610263824462891</v>
+        <v>0.8281145095825195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2471.96496185768</v>
+        <v>2310.025359150329</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1284220385696049</v>
+        <v>0.1497593480639168</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1221915806276996</v>
+        <v>0.1184801079333656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1116350792278481</v>
+        <v>0.1007028535786967</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08799385207054904</v>
+        <v>0.08353091886654077</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08065894461576946</v>
+        <v>0.07562289750995319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07542405977050021</v>
+        <v>0.06734268792914982</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06741713687281861</v>
+        <v>0.06188819093126791</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06312350946953638</v>
+        <v>0.06046636076935589</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0594835592155899</v>
+        <v>0.05618603323469928</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05773203667813051</v>
+        <v>0.0544932049798906</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05551896719539839</v>
+        <v>0.05198501318557715</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05362670874125085</v>
+        <v>0.0503935885499279</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05244455718826804</v>
+        <v>0.04920241166147399</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05141597753621698</v>
+        <v>0.04748584229543912</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05032390771612461</v>
+        <v>0.04657422757736897</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04959711091949304</v>
+        <v>0.04608498473481625</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04876524093736662</v>
+        <v>0.04544081908422815</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04876524093736662</v>
+        <v>0.04544081908422815</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04854724179801333</v>
+        <v>0.04518872069346747</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04818645149820039</v>
+        <v>0.04502973409649763</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7669956684112549</v>
+        <v>0.7499945163726807</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5266.214284634854</v>
+        <v>2367.328310296081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.1245793449342815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.1202804491017233</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.1108205439279128</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.09383266358783419</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.080107417907318</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.07135732214029818</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.0636087220957266</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1218011324193521</v>
+        <v>0.06211569556048255</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1115396103044934</v>
+        <v>0.05815528875412735</v>
       </c>
       <c r="O11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.05575510449337018</v>
       </c>
       <c r="P11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.05313662278201187</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.05062346508681892</v>
       </c>
       <c r="R11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04957443010477465</v>
       </c>
       <c r="S11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04908954757613705</v>
       </c>
       <c r="T11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04828367135735194</v>
       </c>
       <c r="U11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04750679189229829</v>
       </c>
       <c r="V11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04695450001941078</v>
       </c>
       <c r="W11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04648727717124724</v>
       </c>
       <c r="X11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04648727717124724</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.110655249213155</v>
+        <v>0.04614675068803277</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_09_simulated/details.xlsx
+++ b/result/gr100_09_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7408638000488281</v>
+        <v>1.574017763137817</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5332.369331643707</v>
+        <v>3097.927280284184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1224743717815145</v>
+        <v>0.1604769829084368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.1588318131711723</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.1453436509026099</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.1192395740986096</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.1043013785545607</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.09380275646426332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.08476786689685835</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.07898404109961248</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.07517655251836362</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.07209565543819445</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06909174256330598</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.0669768684172341</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06544886804503286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06341059408460627</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06229062839781802</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06197782615479622</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06135780827652566</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06086045663420624</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06049406518640967</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1119448212796044</v>
+        <v>0.06038844600943827</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8230006694793701</v>
+        <v>1.638013124465942</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2283.877863671712</v>
+        <v>3227.34484578137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1320051911585163</v>
+        <v>0.1579152468888128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.125711923168711</v>
+        <v>0.1412008429573984</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1007998690413547</v>
+        <v>0.1412008429573984</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08365886483087463</v>
+        <v>0.1384717320572099</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0749109377536249</v>
+        <v>0.112865719140762</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06883631511461699</v>
+        <v>0.1022186529250497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06270459288546704</v>
+        <v>0.09116065041110696</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05935795837570595</v>
+        <v>0.08613685500236777</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05606197634175334</v>
+        <v>0.07950514317872426</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05108948225248054</v>
+        <v>0.07574116805960003</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05062690877992004</v>
+        <v>0.07284303571626514</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.049519271491518</v>
+        <v>0.07062896024317021</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04790161215254951</v>
+        <v>0.06836927076045866</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04703083164544249</v>
+        <v>0.06651100357673552</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04592965306132922</v>
+        <v>0.06564280613724381</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04547553417312739</v>
+        <v>0.06483665944385887</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04524014485222019</v>
+        <v>0.06426812444042525</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04493049377152694</v>
+        <v>0.06315104071201492</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04460052186854468</v>
+        <v>0.06315104071201492</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04452003632888327</v>
+        <v>0.06291120557078693</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734485387802124</v>
+        <v>1.642001152038574</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2360.759664688449</v>
+        <v>3643.767708799376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1497593480639168</v>
+        <v>0.1589803388499471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1228077057349246</v>
+        <v>0.1421050351351029</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1028632017443405</v>
+        <v>0.1371123582911028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09046948163690653</v>
+        <v>0.1371123582911028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07903592409496828</v>
+        <v>0.1371123582911028</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06760585506952446</v>
+        <v>0.1302823954030578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06399615381852641</v>
+        <v>0.117543306052887</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06103205789511927</v>
+        <v>0.1049357001073789</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05734910240102561</v>
+        <v>0.09882248057202381</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05554845181227069</v>
+        <v>0.09165549893502091</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05317126230851055</v>
+        <v>0.08652756311196635</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05165127808603515</v>
+        <v>0.08189060157074844</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05059626683613808</v>
+        <v>0.07973481403823296</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0494474970517505</v>
+        <v>0.07695229253058808</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04850820813741588</v>
+        <v>0.07579953287714897</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04736591095766077</v>
+        <v>0.07357336647325916</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04720031978818517</v>
+        <v>0.0728850275861682</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04662258797467365</v>
+        <v>0.07162538570104197</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04621840177599682</v>
+        <v>0.07133149508198004</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04601870691400484</v>
+        <v>0.07102861030798002</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7344110012054443</v>
+        <v>1.441996335983276</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2202.126286495735</v>
+        <v>3041.61555505221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1497593480639168</v>
+        <v>0.160543468901924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1150776169237128</v>
+        <v>0.150623564293921</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09420252304396427</v>
+        <v>0.1394917005067958</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08106652238228676</v>
+        <v>0.1205068396276678</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07032213466715975</v>
+        <v>0.1062974719832357</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06336161133801914</v>
+        <v>0.09470706416902007</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0587535044603494</v>
+        <v>0.08320693184407207</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05270396421690392</v>
+        <v>0.07740338584114539</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05127780498285568</v>
+        <v>0.07154422109194554</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05024495653787084</v>
+        <v>0.06970215344897202</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04865183969592821</v>
+        <v>0.06690221511636493</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04715726074969269</v>
+        <v>0.06591807215124143</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04587877057471723</v>
+        <v>0.06354358764565454</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04544753643029661</v>
+        <v>0.06238641413368889</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04445845528026365</v>
+        <v>0.06146766628371915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04425215192444547</v>
+        <v>0.06066715931053943</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04342089270836839</v>
+        <v>0.06029829377244593</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04333439651787391</v>
+        <v>0.05990174609430413</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0430182666002697</v>
+        <v>0.05940899115773397</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04292643833325019</v>
+        <v>0.05929075156047191</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7343628406524658</v>
+        <v>1.935002088546753</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2238.452593445997</v>
+        <v>2867.279455970356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1497593480639168</v>
+        <v>0.1592364624934904</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1273342249029688</v>
+        <v>0.1592364624934904</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09834562226649746</v>
+        <v>0.1273642461882175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08278138951877775</v>
+        <v>0.1058743284319098</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07417545257611062</v>
+        <v>0.09657306432779135</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06611260427658407</v>
+        <v>0.08584860248738614</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06176315784337776</v>
+        <v>0.08025652437970295</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0573189936903312</v>
+        <v>0.07456015184770641</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05381713138375946</v>
+        <v>0.06895595473332161</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05022147756630944</v>
+        <v>0.06663919736600236</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04935866520371448</v>
+        <v>0.06454416336785292</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04750184179756599</v>
+        <v>0.06167380849407362</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04723804836265769</v>
+        <v>0.0604946964057464</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0459666389517788</v>
+        <v>0.05886137396995898</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0451779414181981</v>
+        <v>0.05810157901524822</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04476021280251491</v>
+        <v>0.0576115096282531</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04421328817394798</v>
+        <v>0.05685386045265239</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04391281415093422</v>
+        <v>0.0565247909798257</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04376813959888919</v>
+        <v>0.05625426565374983</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04363455347847947</v>
+        <v>0.05589238705595235</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7187647819519043</v>
+        <v>1.598997354507446</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2322.55232054115</v>
+        <v>2898.013662203069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1497593480639168</v>
+        <v>0.1563813645940376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121051373265077</v>
+        <v>0.1524910398811586</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1015462242439347</v>
+        <v>0.1182023827869908</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08785649886713838</v>
+        <v>0.1022060066474225</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07653748951497456</v>
+        <v>0.09234209774111667</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07108744693888748</v>
+        <v>0.08107478813149183</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06532285974153362</v>
+        <v>0.07686804236450431</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0623509121110928</v>
+        <v>0.07123555062829283</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05563673721776942</v>
+        <v>0.06859133972825146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05378637043887775</v>
+        <v>0.06602517531629666</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0507922605342291</v>
+        <v>0.06452052814850333</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0504351380058428</v>
+        <v>0.06224500430263762</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04888747650651677</v>
+        <v>0.06101057941329222</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04777419082765217</v>
+        <v>0.05968050183373975</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04691947740563192</v>
+        <v>0.05876978212625195</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04647352385885735</v>
+        <v>0.05806177314272683</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04598677325518256</v>
+        <v>0.0576018677114106</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0457135603675387</v>
+        <v>0.0569828192974064</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04542238432670259</v>
+        <v>0.05660037763520541</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04527392437702046</v>
+        <v>0.05649149438992335</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.70308518409729</v>
+        <v>2.003012657165527</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2401.849469895791</v>
+        <v>2939.709604098449</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1290701352274599</v>
+        <v>0.1600589687846479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1270133153463208</v>
+        <v>0.1409645909646496</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1117232063016584</v>
+        <v>0.1298292210015428</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09665971620824125</v>
+        <v>0.1097505933768559</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08206766966181848</v>
+        <v>0.09774246348089675</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07189040343058704</v>
+        <v>0.08771252754728166</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06865720027486887</v>
+        <v>0.08069766052270609</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06333910381666959</v>
+        <v>0.07323832467553289</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05855306231114522</v>
+        <v>0.07079435054924682</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05664882094386005</v>
+        <v>0.06693874997809555</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05384359910907926</v>
+        <v>0.06508327828417342</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05284422807656074</v>
+        <v>0.06350155109263192</v>
       </c>
       <c r="R8" t="n">
-        <v>0.050990567363592</v>
+        <v>0.0618784935929981</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04995369644771817</v>
+        <v>0.06031190251786703</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04823994171586801</v>
+        <v>0.05975325062583559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04797003321811097</v>
+        <v>0.05892652629556996</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04767266914647879</v>
+        <v>0.05821447632848823</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0472731101195637</v>
+        <v>0.05779348245606464</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04689723502356903</v>
+        <v>0.0574494382531978</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04681967777574641</v>
+        <v>0.05730428078164616</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7187929153442383</v>
+        <v>1.504004240036011</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2283.044177400936</v>
+        <v>3102.212111944378</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1237898626793374</v>
+        <v>0.1577898427418709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1237898626793374</v>
+        <v>0.1425492055572619</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1137535194410762</v>
+        <v>0.1397772226173139</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09044289117800083</v>
+        <v>0.1248980761070074</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07958117766702215</v>
+        <v>0.1046411697356955</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06630613126913937</v>
+        <v>0.09943109442559167</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0611658136712826</v>
+        <v>0.08996647514315891</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05890219355154275</v>
+        <v>0.08115496921861161</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05540752689693233</v>
+        <v>0.07547582119351029</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05230648169865215</v>
+        <v>0.0707706391583217</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05065512412086562</v>
+        <v>0.06855657012814691</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04960146059780877</v>
+        <v>0.06656993727560336</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04778493808594001</v>
+        <v>0.06545312250463932</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04648785251838729</v>
+        <v>0.06383188326697257</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04646220983655502</v>
+        <v>0.06297585940775081</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04548149340623794</v>
+        <v>0.06204000552490244</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04517396984899325</v>
+        <v>0.06149754954465499</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04469789586475171</v>
+        <v>0.06087802853453047</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04457158786177876</v>
+        <v>0.06063788709515365</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04450378513452116</v>
+        <v>0.06047197099306778</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8281145095825195</v>
+        <v>1.452996969223022</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2310.025359150329</v>
+        <v>3012.736631736908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1497593480639168</v>
+        <v>0.1561480874227308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1184801079333656</v>
+        <v>0.1439325399783033</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1007028535786967</v>
+        <v>0.1316571244770818</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08353091886654077</v>
+        <v>0.1148656027738071</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07562289750995319</v>
+        <v>0.1031897377690847</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06734268792914982</v>
+        <v>0.09186793517604788</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06188819093126791</v>
+        <v>0.08578611892288779</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06046636076935589</v>
+        <v>0.07973066259662318</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05618603323469928</v>
+        <v>0.07308808984826293</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0544932049798906</v>
+        <v>0.06929143909120569</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05198501318557715</v>
+        <v>0.06573715888735784</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0503935885499279</v>
+        <v>0.06422260995744615</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04920241166147399</v>
+        <v>0.06319127768606801</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04748584229543912</v>
+        <v>0.06199246366727235</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04657422757736897</v>
+        <v>0.06133623535375234</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04608498473481625</v>
+        <v>0.06071831863642067</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04544081908422815</v>
+        <v>0.05983181511877048</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04544081908422815</v>
+        <v>0.05939433981745723</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04518872069346747</v>
+        <v>0.05898353585599979</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04502973409649763</v>
+        <v>0.05872780958551475</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7499945163726807</v>
+        <v>1.624996900558472</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2367.328310296081</v>
+        <v>2930.416218952965</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1245793449342815</v>
+        <v>0.1592694089928404</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202804491017233</v>
+        <v>0.1581492342732628</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1108205439279128</v>
+        <v>0.1331072492332419</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09383266358783419</v>
+        <v>0.1122114271957293</v>
       </c>
       <c r="J11" t="n">
-        <v>0.080107417907318</v>
+        <v>0.09073330689490262</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07135732214029818</v>
+        <v>0.08838555353650333</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0636087220957266</v>
+        <v>0.08021136356524923</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06211569556048255</v>
+        <v>0.07380946005141852</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05815528875412735</v>
+        <v>0.0704479678855874</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05575510449337018</v>
+        <v>0.06717342662143357</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05313662278201187</v>
+        <v>0.06559506911034349</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05062346508681892</v>
+        <v>0.06249057542791098</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04957443010477465</v>
+        <v>0.06161282296562198</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04908954757613705</v>
+        <v>0.05985961337896164</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04828367135735194</v>
+        <v>0.05918948791327575</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04750679189229829</v>
+        <v>0.0588870254255883</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04695450001941078</v>
+        <v>0.05801009950308132</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04648727717124724</v>
+        <v>0.05761128231723563</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04648727717124724</v>
+        <v>0.0573432678508763</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.04614675068803277</v>
+        <v>0.05712312317647104</v>
       </c>
     </row>
   </sheetData>
